--- a/Crawling/crawling_data/day_genie/day_genie_20220324.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220324.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="237">
   <si>
     <t>날짜</t>
   </si>
@@ -52,8 +52,7 @@
     <t>INVU</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>사랑인가 봐</t>
@@ -284,8 +283,7 @@
     <t>비와 당신</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>쉬어 (Feat. MINO) (Prod. by GRAY)</t>
@@ -559,9 +557,6 @@
   </si>
   <si>
     <t>INVU - The 3rd Album</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
@@ -1226,7 +1221,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1243,7 +1238,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1260,7 +1255,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1277,7 +1272,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1311,7 +1306,7 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1345,7 +1340,7 @@
         <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1362,7 +1357,7 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1430,7 +1425,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1447,7 +1442,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1498,7 +1493,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1532,7 +1527,7 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1566,7 +1561,7 @@
         <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1583,7 +1578,7 @@
         <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1600,7 +1595,7 @@
         <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1669,7 +1664,7 @@
         <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1686,7 +1681,7 @@
         <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1703,7 +1698,7 @@
         <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1720,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1737,7 +1732,7 @@
         <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1754,7 +1749,7 @@
         <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1771,7 +1766,7 @@
         <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1822,7 +1817,7 @@
         <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1839,7 +1834,7 @@
         <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1856,7 +1851,7 @@
         <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1873,7 +1868,7 @@
         <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1890,7 +1885,7 @@
         <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1907,7 +1902,7 @@
         <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1924,7 +1919,7 @@
         <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1941,7 +1936,7 @@
         <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1958,7 +1953,7 @@
         <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1975,7 +1970,7 @@
         <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1992,7 +1987,7 @@
         <v>147</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2009,7 +2004,7 @@
         <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2026,7 +2021,7 @@
         <v>127</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2060,7 +2055,7 @@
         <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2077,7 +2072,7 @@
         <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2128,7 +2123,7 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2145,7 +2140,7 @@
         <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2162,7 +2157,7 @@
         <v>123</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2196,7 +2191,7 @@
         <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2213,7 +2208,7 @@
         <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2230,7 +2225,7 @@
         <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2247,7 +2242,7 @@
         <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2264,7 +2259,7 @@
         <v>127</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2315,7 +2310,7 @@
         <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2332,7 +2327,7 @@
         <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2349,7 +2344,7 @@
         <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2366,7 +2361,7 @@
         <v>158</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2383,7 +2378,7 @@
         <v>143</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2400,7 +2395,7 @@
         <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2417,7 +2412,7 @@
         <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2434,7 +2429,7 @@
         <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2485,7 +2480,7 @@
         <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2519,7 +2514,7 @@
         <v>118</v>
       </c>
       <c r="E84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2536,7 +2531,7 @@
         <v>158</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2553,7 +2548,7 @@
         <v>164</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2570,7 +2565,7 @@
         <v>165</v>
       </c>
       <c r="E87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2621,7 +2616,7 @@
         <v>168</v>
       </c>
       <c r="E90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2689,7 +2684,7 @@
         <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2706,7 +2701,7 @@
         <v>173</v>
       </c>
       <c r="E95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2774,7 +2769,7 @@
         <v>175</v>
       </c>
       <c r="E99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2791,7 +2786,7 @@
         <v>176</v>
       </c>
       <c r="E100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:5">
